--- a/Assets/Master/EnemyMaster.xlsx
+++ b/Assets/Master/EnemyMaster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="data" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -308,6 +311,20 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
